--- a/data/trans_orig/P14B26-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B26-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EBDD6BA-2439-478F-B0DB-59305A1CCE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE439638-BD50-41EE-BA55-C59E323D5D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{753BF79F-2906-4411-91A0-AFC862460318}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B4D1BFFD-B9F3-486C-8CDA-4BCD8FE0356B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="405">
   <si>
     <t>Población cuya hipoacusia le limita en 2012 (Tasa respuesta: 1,58%)</t>
   </si>
@@ -94,7 +94,7 @@
     <t>82,9%</t>
   </si>
   <si>
-    <t>46,34%</t>
+    <t>53,11%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -103,10 +103,10 @@
     <t>66,67%</t>
   </si>
   <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -118,16 +118,16 @@
     <t>17,1%</t>
   </si>
   <si>
-    <t>53,66%</t>
+    <t>46,89%</t>
   </si>
   <si>
     <t>33,33%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -169,10 +169,10 @@
     <t>41,86%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
   </si>
   <si>
     <t>74,37%</t>
@@ -184,19 +184,19 @@
     <t>61,48%</t>
   </si>
   <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>58,14%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>25,63%</t>
@@ -208,10 +208,10 @@
     <t>38,52%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -220,744 +220,765 @@
     <t>71,02%</t>
   </si>
   <si>
-    <t>27,43%</t>
+    <t>27,71%</t>
   </si>
   <si>
     <t>74,5%</t>
   </si>
   <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>49,9%</t>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya hipoacusia le limita en 2015 (Tasa respuesta: 1,75%)</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
   </si>
   <si>
     <t>89,52%</t>
   </si>
   <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
   </si>
   <si>
     <t>10,48%</t>
   </si>
   <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>Población cuya hipoacusia le limita en 2023 (Tasa respuesta: 6,37%)</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
   </si>
   <si>
     <t>45,88%</t>
   </si>
   <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
   </si>
   <si>
     <t>54,12%</t>
   </si>
   <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya hipoacusia le limita en 2015 (Tasa respuesta: 1,75%)</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>Población cuya hipoacusia le limita en 2023 (Tasa respuesta: 6,37%)</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
     <t>25,04%</t>
   </si>
   <si>
@@ -967,274 +988,271 @@
     <t>58,24%</t>
   </si>
   <si>
-    <t>40,66%</t>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
   </si>
   <si>
     <t>56,61%</t>
   </si>
   <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
   </si>
   <si>
     <t>49,21%</t>
   </si>
   <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
   </si>
   <si>
     <t>37,68%</t>
   </si>
   <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
+    <t>50,26%</t>
   </si>
   <si>
     <t>76,62%</t>
   </si>
   <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>50,79%</t>
   </si>
   <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
   </si>
   <si>
     <t>62,32%</t>
   </si>
   <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
   </si>
   <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>78,88%</t>
   </si>
   <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
   </si>
   <si>
     <t>34,71%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
   </si>
   <si>
     <t>44,14%</t>
   </si>
   <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
   </si>
   <si>
     <t>40,16%</t>
   </si>
   <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
   <si>
     <t>65,29%</t>
   </si>
   <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
   </si>
   <si>
     <t>55,86%</t>
   </si>
   <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
   </si>
   <si>
     <t>59,84%</t>
   </si>
   <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
   </si>
   <si>
     <t>36,93%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
   </si>
   <si>
     <t>44,56%</t>
   </si>
   <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
   </si>
   <si>
     <t>41,16%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
   </si>
   <si>
     <t>63,07%</t>
   </si>
   <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
   </si>
   <si>
     <t>55,44%</t>
   </si>
   <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
   </si>
   <si>
     <t>58,84%</t>
   </si>
   <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
   </si>
   <si>
     <t>31,4%</t>
   </si>
   <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>42,08%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
   </si>
   <si>
     <t>36,95%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>68,6%</t>
   </si>
   <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>57,92%</t>
   </si>
   <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
   </si>
   <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
   </si>
 </sst>
 </file>
@@ -1646,7 +1664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83826B-FC66-47D2-ADCE-C83ABBF6D10C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3F5E51-57D7-4698-B8FE-EF5836F0DE42}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2870,10 +2888,10 @@
         <v>104</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,7 +2906,7 @@
         <v>2264</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>14</v>
@@ -2903,13 +2921,13 @@
         <v>4493</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2918,13 +2936,13 @@
         <v>6757</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +3010,13 @@
         <v>31927</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H28" s="7">
         <v>40</v>
@@ -3007,13 +3025,13 @@
         <v>43867</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M28" s="7">
         <v>70</v>
@@ -3022,13 +3040,13 @@
         <v>75794</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3061,13 @@
         <v>19834</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -3058,13 +3076,13 @@
         <v>18766</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -3073,13 +3091,13 @@
         <v>38600</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,7 +3153,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3159,7 +3177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A083552B-1414-4A6E-8C61-45E4CE0B0803}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CF4BE9-5B6D-4E4A-9719-CC8B83EBD8E0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3176,7 +3194,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3283,10 +3301,10 @@
         <v>5262</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -3298,13 +3316,13 @@
         <v>5097</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -3313,13 +3331,13 @@
         <v>10360</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3352,13 @@
         <v>1938</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3349,13 +3367,13 @@
         <v>3050</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3364,13 +3382,13 @@
         <v>4987</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,7 +3462,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3453,13 +3471,13 @@
         <v>2252</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3468,13 +3486,13 @@
         <v>2252</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,7 +3510,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -3504,10 +3522,10 @@
         <v>3420</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3519,10 +3537,10 @@
         <v>6064</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3593,7 +3611,7 @@
         <v>938</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
@@ -3614,7 +3632,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3623,13 +3641,13 @@
         <v>938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,7 +3662,7 @@
         <v>783</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>14</v>
@@ -3662,7 +3680,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -3674,10 +3692,10 @@
         <v>3967</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3748,13 +3766,13 @@
         <v>2741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3778,13 +3796,13 @@
         <v>5799</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3817,13 @@
         <v>4392</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3829,13 +3847,13 @@
         <v>4393</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3936,13 @@
         <v>4480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3933,13 +3951,13 @@
         <v>7092</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3987,13 @@
         <v>4295</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -3984,13 +4002,13 @@
         <v>4295</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,10 +4076,10 @@
         <v>2855</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>19</v>
@@ -4073,13 +4091,13 @@
         <v>4104</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4088,13 +4106,13 @@
         <v>6960</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4127,13 @@
         <v>2187</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4124,13 +4142,13 @@
         <v>4010</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4139,13 +4157,13 @@
         <v>6196</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4231,13 @@
         <v>4490</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -4228,13 +4246,13 @@
         <v>11084</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -4243,13 +4261,13 @@
         <v>15574</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4282,13 @@
         <v>8971</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H23" s="7">
         <v>16</v>
@@ -4279,13 +4297,13 @@
         <v>18711</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -4294,13 +4312,13 @@
         <v>27682</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4386,13 @@
         <v>6201</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -4383,7 +4401,7 @@
         <v>2158</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
@@ -4398,13 +4416,13 @@
         <v>8360</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4437,13 @@
         <v>3023</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -4434,7 +4452,7 @@
         <v>3261</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>14</v>
@@ -4449,13 +4467,13 @@
         <v>6284</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4541,13 @@
         <v>25100</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H28" s="7">
         <v>29</v>
@@ -4538,13 +4556,13 @@
         <v>32235</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M28" s="7">
         <v>55</v>
@@ -4553,13 +4571,13 @@
         <v>57335</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4592,13 @@
         <v>23937</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -4589,13 +4607,13 @@
         <v>39931</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M29" s="7">
         <v>60</v>
@@ -4604,13 +4622,13 @@
         <v>63868</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,7 +4684,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4690,7 +4708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9542F2DE-33A1-4BF7-872B-EDE652FC30FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEA8558-7F25-4463-85CC-B1B61ACBDE03}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4707,7 +4725,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4814,13 +4832,13 @@
         <v>3157</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4844,13 +4862,13 @@
         <v>8857</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4883,13 @@
         <v>2077</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4895,13 +4913,13 @@
         <v>2077</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4987,13 @@
         <v>6535</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4984,13 +5002,13 @@
         <v>6636</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -4999,13 +5017,13 @@
         <v>13170</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5038,13 @@
         <v>5657</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5035,13 +5053,13 @@
         <v>4432</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -5050,13 +5068,13 @@
         <v>10089</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5142,13 @@
         <v>8458</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5139,13 +5157,13 @@
         <v>8387</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -5154,13 +5172,13 @@
         <v>16845</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5193,13 @@
         <v>22710</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -5190,13 +5208,13 @@
         <v>13841</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
@@ -5205,13 +5223,13 @@
         <v>36550</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,13 +5297,13 @@
         <v>4936</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5294,13 +5312,13 @@
         <v>6898</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>307</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -5309,13 +5327,13 @@
         <v>11834</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5348,13 @@
         <v>5823</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>312</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -5345,13 +5363,13 @@
         <v>9619</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>317</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -5360,13 +5378,13 @@
         <v>15442</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5452,13 @@
         <v>3450</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5449,13 +5467,13 @@
         <v>9009</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -5464,13 +5482,13 @@
         <v>12459</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>320</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5503,13 @@
         <v>11305</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -5500,13 +5518,13 @@
         <v>9298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -5515,13 +5533,13 @@
         <v>20603</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,10 +5610,10 @@
         <v>25</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -5604,13 +5622,13 @@
         <v>7121</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -5619,13 +5637,13 @@
         <v>13530</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,25 +5661,25 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H20" s="7">
         <v>60</v>
       </c>
       <c r="I20" s="7">
-        <v>26602</v>
+        <v>26601</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M20" s="7">
         <v>119</v>
@@ -5670,13 +5688,13 @@
         <v>57665</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,7 +5721,7 @@
         <v>77</v>
       </c>
       <c r="I21" s="7">
-        <v>33723</v>
+        <v>33722</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>24</v>
@@ -5744,13 +5762,13 @@
         <v>12307</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -5759,13 +5777,13 @@
         <v>21383</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -5774,13 +5792,13 @@
         <v>33689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5813,13 @@
         <v>23146</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -5810,13 +5828,13 @@
         <v>27059</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -5825,13 +5843,13 @@
         <v>50206</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,13 +5917,13 @@
         <v>6113</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -5914,13 +5932,13 @@
         <v>9172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -5929,13 +5947,13 @@
         <v>15285</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,13 +5968,13 @@
         <v>10438</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5965,13 +5983,13 @@
         <v>11413</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -5980,13 +5998,13 @@
         <v>21851</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,13 +6072,13 @@
         <v>51365</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="H28" s="7">
         <v>136</v>
@@ -6069,13 +6087,13 @@
         <v>74305</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="M28" s="7">
         <v>206</v>
@@ -6084,13 +6102,13 @@
         <v>125670</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +6123,13 @@
         <v>112219</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H29" s="7">
         <v>187</v>
@@ -6120,13 +6138,13 @@
         <v>102264</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M29" s="7">
         <v>351</v>
@@ -6135,13 +6153,13 @@
         <v>214483</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6197,7 +6215,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B26-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B26-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE439638-BD50-41EE-BA55-C59E323D5D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A1D462-79C2-44EF-BE5F-CD14D5B8990D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B4D1BFFD-B9F3-486C-8CDA-4BCD8FE0356B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35496D87-72DF-4965-A433-639F710E7664}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="407">
   <si>
     <t>Población cuya hipoacusia le limita en 2012 (Tasa respuesta: 1,58%)</t>
   </si>
@@ -94,7 +94,7 @@
     <t>82,9%</t>
   </si>
   <si>
-    <t>53,11%</t>
+    <t>53,05%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -103,10 +103,10 @@
     <t>66,67%</t>
   </si>
   <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -118,16 +118,16 @@
     <t>17,1%</t>
   </si>
   <si>
-    <t>46,89%</t>
+    <t>46,95%</t>
   </si>
   <si>
     <t>33,33%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -139,13 +139,13 @@
     <t>59,66%</t>
   </si>
   <si>
-    <t>18,64%</t>
+    <t>19,04%</t>
   </si>
   <si>
     <t>80,11%</t>
   </si>
   <si>
-    <t>44,98%</t>
+    <t>38,93%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -154,13 +154,13 @@
     <t>40,34%</t>
   </si>
   <si>
-    <t>81,36%</t>
+    <t>80,96%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>55,02%</t>
+    <t>61,07%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -169,49 +169,43 @@
     <t>41,86%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
+    <t>85,65%</t>
   </si>
   <si>
     <t>74,37%</t>
   </si>
   <si>
-    <t>38,56%</t>
+    <t>38,79%</t>
   </si>
   <si>
     <t>61,48%</t>
   </si>
   <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
   </si>
   <si>
     <t>58,14%</t>
   </si>
   <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>14,35%</t>
   </si>
   <si>
     <t>25,63%</t>
   </si>
   <si>
-    <t>61,44%</t>
+    <t>61,21%</t>
   </si>
   <si>
     <t>38,52%</t>
   </si>
   <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -220,49 +214,49 @@
     <t>71,02%</t>
   </si>
   <si>
-    <t>27,71%</t>
+    <t>27,75%</t>
   </si>
   <si>
     <t>74,5%</t>
   </si>
   <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
   </si>
   <si>
     <t>28,98%</t>
   </si>
   <si>
-    <t>72,29%</t>
+    <t>72,25%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -286,769 +280,781 @@
     <t>49,54%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>56,74%</t>
   </si>
   <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
   </si>
   <si>
     <t>52,22%</t>
   </si>
   <si>
-    <t>30,44%</t>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya hipoacusia le limita en 2016 (Tasa respuesta: 1,75%)</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>Población cuya hipoacusia le limita en 2023 (Tasa respuesta: 6,37%)</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
   </si>
   <si>
     <t>72,63%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya hipoacusia le limita en 2015 (Tasa respuesta: 1,75%)</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>Población cuya hipoacusia le limita en 2023 (Tasa respuesta: 6,37%)</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
   </si>
   <si>
     <t>9,14%</t>
@@ -1664,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3F5E51-57D7-4698-B8FE-EF5836F0DE42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB812FE2-12DB-4545-A63E-EC0E2B5C523B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2238,10 +2244,10 @@
         <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2250,10 +2256,10 @@
         <v>8070</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>19</v>
@@ -2265,13 +2271,13 @@
         <v>11055</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,13 +2292,13 @@
         <v>4147</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2301,13 +2307,13 @@
         <v>2781</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2316,13 +2322,13 @@
         <v>6927</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,7 +2384,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2390,10 +2396,10 @@
         <v>5316</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -2405,13 +2411,13 @@
         <v>8974</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -2420,13 +2426,13 @@
         <v>14290</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2447,13 @@
         <v>2169</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2456,13 +2462,13 @@
         <v>3071</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2471,13 +2477,13 @@
         <v>5241</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,7 +2539,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2548,7 +2554,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>24</v>
@@ -2578,7 +2584,7 @@
         <v>19</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>24</v>
@@ -2602,7 +2608,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2632,7 +2638,7 @@
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,7 +2694,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2700,13 +2706,13 @@
         <v>7953</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2715,13 +2721,13 @@
         <v>5393</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2730,13 +2736,13 @@
         <v>13345</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2757,13 @@
         <v>8099</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -2766,13 +2772,13 @@
         <v>4112</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -2781,13 +2787,13 @@
         <v>12212</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2849,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2855,7 +2861,7 @@
         <v>2060</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
@@ -2870,13 +2876,13 @@
         <v>3321</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2885,13 +2891,13 @@
         <v>5381</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,7 +2912,7 @@
         <v>2264</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>14</v>
@@ -2921,13 +2927,13 @@
         <v>4493</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2936,13 +2942,13 @@
         <v>6757</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +3016,13 @@
         <v>31927</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H28" s="7">
         <v>40</v>
@@ -3025,13 +3031,13 @@
         <v>43867</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M28" s="7">
         <v>70</v>
@@ -3040,13 +3046,13 @@
         <v>75794</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3067,13 @@
         <v>19834</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -3076,13 +3082,13 @@
         <v>18766</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -3091,13 +3097,13 @@
         <v>38600</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,7 +3159,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3177,7 +3183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CF4BE9-5B6D-4E4A-9719-CC8B83EBD8E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E596868B-701E-42A4-AA7F-C6538F9ADF32}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3194,7 +3200,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3301,10 +3307,10 @@
         <v>5262</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -3316,13 +3322,13 @@
         <v>5097</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -3331,13 +3337,13 @@
         <v>10360</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3358,13 @@
         <v>1938</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3367,13 +3373,13 @@
         <v>3050</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3382,13 +3388,13 @@
         <v>4987</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,7 +3468,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3471,13 +3477,13 @@
         <v>2252</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3486,13 +3492,13 @@
         <v>2252</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,7 +3516,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -3522,10 +3528,10 @@
         <v>3420</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3537,10 +3543,10 @@
         <v>6064</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3611,7 +3617,7 @@
         <v>938</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
@@ -3632,7 +3638,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3641,13 +3647,13 @@
         <v>938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,7 +3668,7 @@
         <v>783</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>14</v>
@@ -3680,7 +3686,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -3692,10 +3698,10 @@
         <v>3967</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3909,7 +3915,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4064,7 +4070,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4079,7 +4085,7 @@
         <v>188</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>19</v>
@@ -4091,13 +4097,13 @@
         <v>4104</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4106,13 +4112,13 @@
         <v>6960</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4133,13 @@
         <v>2187</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4142,13 +4148,13 @@
         <v>4010</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4157,13 +4163,13 @@
         <v>6196</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,7 +4225,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4231,13 +4237,13 @@
         <v>4490</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -4246,13 +4252,13 @@
         <v>11084</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -4261,13 +4267,13 @@
         <v>15574</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4288,13 @@
         <v>8971</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H23" s="7">
         <v>16</v>
@@ -4297,13 +4303,13 @@
         <v>18711</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -4312,13 +4318,13 @@
         <v>27682</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,7 +4380,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4386,13 +4392,13 @@
         <v>6201</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -4401,13 +4407,13 @@
         <v>2158</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4416,13 +4422,13 @@
         <v>8360</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4443,13 @@
         <v>3023</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -4452,10 +4458,10 @@
         <v>3261</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -4684,7 +4690,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4708,7 +4714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEA8558-7F25-4463-85CC-B1B61ACBDE03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878560BD-DD35-4213-A4DB-0CB3224C6582}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4850,7 +4856,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>24</v>
@@ -4904,7 +4910,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5440,7 +5446,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5485,10 +5491,10 @@
         <v>327</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5509,13 @@
         <v>11305</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -5518,13 +5524,13 @@
         <v>9298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -5533,13 +5539,13 @@
         <v>20603</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,7 +5601,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5610,10 +5616,10 @@
         <v>25</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -5622,13 +5628,13 @@
         <v>7121</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -5640,10 +5646,10 @@
         <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,10 +5667,10 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H20" s="7">
         <v>60</v>
@@ -5673,13 +5679,13 @@
         <v>26601</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M20" s="7">
         <v>119</v>
@@ -5691,10 +5697,10 @@
         <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,7 +5756,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5762,13 +5768,13 @@
         <v>12307</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -5777,13 +5783,13 @@
         <v>21383</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -5792,13 +5798,13 @@
         <v>33689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5819,13 @@
         <v>23146</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -5828,13 +5834,13 @@
         <v>27059</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -5843,13 +5849,13 @@
         <v>50206</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,7 +5911,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5917,13 +5923,13 @@
         <v>6113</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -5932,13 +5938,13 @@
         <v>9172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -5947,13 +5953,13 @@
         <v>15285</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,13 +5974,13 @@
         <v>10438</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5983,13 +5989,13 @@
         <v>11413</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -5998,13 +6004,13 @@
         <v>21851</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6078,13 @@
         <v>51365</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H28" s="7">
         <v>136</v>
@@ -6087,13 +6093,13 @@
         <v>74305</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M28" s="7">
         <v>206</v>
@@ -6102,13 +6108,13 @@
         <v>125670</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6129,13 @@
         <v>112219</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H29" s="7">
         <v>187</v>
@@ -6138,13 +6144,13 @@
         <v>102264</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M29" s="7">
         <v>351</v>
@@ -6153,13 +6159,13 @@
         <v>214483</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,7 +6221,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
